--- a/biology/Botanique/Crassula_perfoliata_var._minor/Crassula_perfoliata_var._minor.xlsx
+++ b/biology/Botanique/Crassula_perfoliata_var._minor/Crassula_perfoliata_var._minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassula perfoliata var. minor est une variété de plantes à fleurs de la famille des Crassulacées.
 Nom scientifique : Crassula perfoliata L. var. minor (Haw.) G. D. Rowley
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante grasse plus ou moins rampante ou dressée, qui forme vite une touffe par ses rejets à la base.
 Les feuilles en forme de faux (8 à 10 cm de long sur 3 à 4 cm de large), de couleur gris-vert, sont plaquées contre la tige. Il existe une variété naine, minima ou minor, très compacte et facile à cultiver.
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle apprécie la lumière, la chaleur, la sécheresse, mais apprécie les arrosages quand elle est en période de croissance. Elle supporte le froid jusqu'à -2 °C mais il vaut mieux ne pas descendre longtemps au-dessous de 10 °C, surtout si l'atmosphère est humide.
 La reproduction par bouturage est très facile, y compris avec des feuilles détachées, pourvu que la cicatrice ait bien séché. 
@@ -577,7 +593,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Origine : Afrique du Sud (Transvaal et cap de Bonne-Espérance).
 </t>
